--- a/Ejercicio5-Normalizacion/Normalizacion-Alumnos.xlsx
+++ b/Ejercicio5-Normalizacion/Normalizacion-Alumnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian.lopezc\Desktop\Clases\SQL\Ejercicio5-Normalizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FB9BD-9568-41E9-A318-A01A52A6790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEDDCB2-C2ED-46CD-9107-44F872F241CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Salon</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Arquitectura</t>
   </si>
   <si>
-    <t>1A-202</t>
-  </si>
-  <si>
-    <t>1A-203</t>
-  </si>
-  <si>
     <t>Gestion</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>1B-203</t>
   </si>
   <si>
-    <t>1B-204</t>
-  </si>
-  <si>
     <t>1fn</t>
   </si>
   <si>
@@ -82,6 +73,12 @@
   </si>
   <si>
     <t>3fn</t>
+  </si>
+  <si>
+    <t>Base Datos</t>
+  </si>
+  <si>
+    <t>An.Mates</t>
   </si>
 </sst>
 </file>
@@ -179,15 +176,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -217,7 +214,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5245100" y="196850"/>
+          <a:off x="5588000" y="184150"/>
           <a:ext cx="5734050" cy="1250950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -506,7 +503,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,30 +545,30 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -579,56 +576,56 @@
         <v>4123</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -670,16 +667,16 @@
         <v>4123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>1023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -687,7 +684,7 @@
         <v>1024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -695,7 +692,7 @@
         <v>4123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -703,7 +700,7 @@
         <v>4124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -711,7 +708,7 @@
         <v>4125</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
